--- a/biology/Médecine/Fécondation_humaine/Fécondation_humaine.xlsx
+++ b/biology/Médecine/Fécondation_humaine/Fécondation_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9condation_humaine</t>
+          <t>Fécondation_humaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fécondation, pour les êtres humains, est le stade de la reproduction sexuée consistant en une fusion des gamètes mâle et femelle en une cellule unique nommée zygote. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9condation_humaine</t>
+          <t>Fécondation_humaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le spermatozoïde doit d'abord atteindre la zone pellucide entourant l'ovocyte. Le mouvement hyperactivé (acquis après la capacitation) du spermatozoïde suffit.
-Le spermatozoïde et l'ovocyte se reconnaissent comme compatibles, de la même espèce. Cette reconnaissance est effectuée entre deux protéines membranaires : Izumo1[1] et Juno[2]. Juno se situe sur la membrane plasmique de l'ovocyte. Cette protéine est le récepteur d'Izumo1, qui est porté par la membrane cytoplasmique de la tête des spermatozoïdes. On a donc un couple ligand-récepteur.
+Le spermatozoïde et l'ovocyte se reconnaissent comme compatibles, de la même espèce. Cette reconnaissance est effectuée entre deux protéines membranaires : Izumo1 et Juno. Juno se situe sur la membrane plasmique de l'ovocyte. Cette protéine est le récepteur d'Izumo1, qui est porté par la membrane cytoplasmique de la tête des spermatozoïdes. On a donc un couple ligand-récepteur.
 Chez l'humain et autres mammifères à fécondation interne, il n'y a a priori pas de problème de reconnaissance, deux espèces différentes ne s'accouplant que rarement ensemble. Les expériences ont tout de même montré qu'une fécondation entre deux espèces différentes n'était pas possible, du fait de la spécificité de la partie glucidique glycoprotéine ZP3 (spécifique pour une espèce donnée, la partie protéique étant très conservée au cours de l'évolution) intervenant dans le processus de fécondation. Ce mécanisme de reconnaissance spécifique est surtout utile pour les animaux à fécondation externe, comme certains poissons ou batraciens : la femelle pond ses œufs dans le milieu, et le mâle vient y déposer son sperme.
 Il se produit alors une réaction acrosomique, qui va « dissoudre » la zone pellucide et permettre le passage du gamète mâle (bien que le mouvement hyperactivé du flagelle du spermatozoïde soit plus important que la réaction acrosomique lors de la traversée de la zone pellucide), jusqu'à la membrane plasmique de l'ovocyte. Afin de garder une quantité 2n de matériel génétique chez le zygote, un seul spermatozoïde doit féconder l'ovocyte : c'est la monospermie. Le spermatozoïde fécondant est intégré en entier à l'ovocyte, flagelle compris. S'ensuit la réaction corticale (exocytose des granules corticaux accumulés contre la face interne de la membrane de l'ovocyte) qui imperméabilise la zone pellucide et l'inversion de la polarité électrique de la membrane cytoplasmique de l'ovocyte par passage d'ions à travers des canaux spécifiques : cela évite la polyspermie qui générerait des zygotes non viables.
 Toutes les mitochondries du spermatozoïde sont détruites ainsi que les constituants du flagelle.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9condation_humaine</t>
+          <t>Fécondation_humaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +562,15 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs désordres génétiques peuvent survenir et causer des défectuosités durant le processus de fécondation.
 Polyploïdies, qui peuvent être causé par polyspermie (on parle de diandrie) ou non expulsion du 1er ou 2er globule polaire (on parle alors de digynie).
 Aneuploïdies, qui s'opposent à « euploïdies » (nombre normal de chromosome) et désignent une anomalie du nombre de chromosomes. Ce sont les déficits (monosomie) ou excès (par exemple la trisomie 21) de chromosomes.
 Incidence sur le sexe de l'embryon
-Une équipe en Nouvelle-Zélande a suggéré que l'identification précise de l'ovulation grâce aux indices de fertilité (température corporelle et glaire cervicale) pourrait permettre d'augmenter les chances d'avoir soit une fille soit un garçon. Ainsi, les chances d'avoir une fille semblent plus élevées si la conception a lieu plus de 48 heures avant l'ovulation[3].
+Une équipe en Nouvelle-Zélande a suggéré que l'identification précise de l'ovulation grâce aux indices de fertilité (température corporelle et glaire cervicale) pourrait permettre d'augmenter les chances d'avoir soit une fille soit un garçon. Ainsi, les chances d'avoir une fille semblent plus élevées si la conception a lieu plus de 48 heures avant l'ovulation.
 </t>
         </is>
       </c>
